--- a/biology/Médecine/Loxapine/Loxapine.xlsx
+++ b/biology/Médecine/Loxapine/Loxapine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La loxapine (Adasuve, Loxapac, Xylac) est un antipsychotique atypique[3],[4],[5] de 2ème génération utilisé principalement dans le traitement des états psychotiques aigus et chroniques.
-Si la loxapine est un traitement toujours utilisé comme traitement de fond dans les maladies psychotiques, notamment la schizophrénie, elle est désormais surtout utilisée en psychiatrie comme tranquillisant majeur pour traiter l'agitation, les délires, stopper les hallucinations ou encore calmer les patients anxieux lorsque la psychopharmacologie de première intention (les anxiolytiques) a échoué. C'est un membre de la classe de la dibenzoxazépine[6].
+La loxapine (Adasuve, Loxapac, Xylac) est un antipsychotique atypique de 2ème génération utilisé principalement dans le traitement des états psychotiques aigus et chroniques.
+Si la loxapine est un traitement toujours utilisé comme traitement de fond dans les maladies psychotiques, notamment la schizophrénie, elle est désormais surtout utilisée en psychiatrie comme tranquillisant majeur pour traiter l'agitation, les délires, stopper les hallucinations ou encore calmer les patients anxieux lorsque la psychopharmacologie de première intention (les anxiolytiques) a échoué. C'est un membre de la classe de la dibenzoxazépine.
 La loxapine est en premier lieu un traitement efficace pour améliorer l'organisation de la pensée des patients psychotiques. La loxapine est, de nos jours, souvent utilisée dans le cadre du traitement des épisodes psychotiques aigus chez les patients schizophrènes, bipolaires ou mélancoliques.
 </t>
         </is>
@@ -514,12 +526,14 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ses autorisations de mise sur le marché en France sont les états psychotiques aigus ou chroniques (schizophrénie, paranoïa, psychose hallucinatoire chronique…), les états d’agitations dans le cadre des psychoses et des troubles de la personnalité (trouble de la personnalité borderline, trouble de la personnalité antisociale) pour une courte durée et ce à partir de l’âge de 15 ans[7],[8].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses autorisations de mise sur le marché en France sont les états psychotiques aigus ou chroniques (schizophrénie, paranoïa, psychose hallucinatoire chronique…), les états d’agitations dans le cadre des psychoses et des troubles de la personnalité (trouble de la personnalité borderline, trouble de la personnalité antisociale) pour une courte durée et ce à partir de l’âge de 15 ans,.
 Elle est surtout utilisée pour traiter les troubles du comportement associés aux psychoses et troubles de la personnalité, tels que l'agitation ou l'agressivité, l’anxiété, les automutilations ou encore le risque suicidaire.
-Une brève revue sur la loxapine[9] n'a pas montré en définitive que la loxapine était particulièrement efficace chez les patients avec une schizophrénie paranoïde. Une étude postérieure a montré que les quelques études ne prouvent pas que la loxapine ait des effets supérieurs à d'autres antipsychotiques[10].
-La loxapine sous forme injectable intramusculaire aurait un effet plus rapide et une plus grande efficacité que l'halopéridol intramusculaire sur l'agitation et l'agressivité de certains patients[11].
+Une brève revue sur la loxapine n'a pas montré en définitive que la loxapine était particulièrement efficace chez les patients avec une schizophrénie paranoïde. Une étude postérieure a montré que les quelques études ne prouvent pas que la loxapine ait des effets supérieurs à d'autres antipsychotiques.
+La loxapine sous forme injectable intramusculaire aurait un effet plus rapide et une plus grande efficacité que l'halopéridol intramusculaire sur l'agitation et l'agressivité de certains patients.
 </t>
         </is>
       </c>
@@ -548,9 +562,11 @@
           <t>Recherche</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La loxapine a été un des cinq antipsychotiques utilisés dans une étude sur la structure des neurones dans les parties du cerveau dont on pense qu'elles sont impliquées dans la schizophrénie. Seule la loxapine a été associée avec le développement de nouvelles connexions entre neurones (neurogenèse)[12].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La loxapine a été un des cinq antipsychotiques utilisés dans une étude sur la structure des neurones dans les parties du cerveau dont on pense qu'elles sont impliquées dans la schizophrénie. Seule la loxapine a été associée avec le développement de nouvelles connexions entre neurones (neurogenèse).
 </t>
         </is>
       </c>
@@ -579,11 +595,13 @@
           <t>Biochimie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un antipsychotique polyvalent qui possède des propriétés anxiolytiques et sédatives lorsqu'il est consommé sur de courtes périodes et des propriétés antidélirantes (ou « incisives ») lorsqu'il est consommé sur de longues périodes. La loxapine est toutefois utilisée prioritairement pour ses propriétés sédatives.
-C'est un antagoniste ayant une forte affinité pour les récepteurs dopaminergiques D2, D3 et D4, les récepteurs sérotoninergiques 5-HT2A, 5-HT2C et 5-HT6, le récepteur adrénergique α1 et le récepteur histaminergique H1[11],[13].
-Son métabolite principal est l'amoxapine, un antidépresseur tétracyclique[14].
+C'est un antagoniste ayant une forte affinité pour les récepteurs dopaminergiques D2, D3 et D4, les récepteurs sérotoninergiques 5-HT2A, 5-HT2C et 5-HT6, le récepteur adrénergique α1 et le récepteur histaminergique H1,.
+Son métabolite principal est l'amoxapine, un antidépresseur tétracyclique.
 </t>
         </is>
       </c>
@@ -612,27 +630,29 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>N. B. : selon DrugPoint, les pourcentages donnés après les éventuels effets secondaires se réfèrent à la fréquence de ces effets secondaires[15].
-Effets secondaires courants de la loxapine (fréquence ≥ 1 %) par inhalation[15] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>N. B. : selon DrugPoint, les pourcentages donnés après les éventuels effets secondaires se réfèrent à la fréquence de ces effets secondaires.
+Effets secondaires courants de la loxapine (fréquence ≥ 1 %) par inhalation :
 perte de goût (14 %) ;
 sédation (12 %) ;
 pharyngite (3 %).
-Effets secondaires courants de la loxapine administrée par voie orale[15] :
+Effets secondaires courants de la loxapine administrée par voie orale :
 constipation ;
 xérostomie ;
 étourdissement ;
 akathisie ;
 sommeil intense ;
 trouble de la parole ;
-syndromes extrapyramidaux (en fonction des doses administrées. À des doses plus faibles, sa propension à provoquer des effets secondaires extrapyramidaux semble être similaire à celle des antipsychotiques atypiques[16]) ;
+syndromes extrapyramidaux (en fonction des doses administrées. À des doses plus faibles, sa propension à provoquer des effets secondaires extrapyramidaux semble être similaire à celle des antipsychotiques atypiques) ;
 vision trouble (en) ;
 rétention aiguë d'urine ;
-somnolence (relativement modérée par rapport à celles déclenchées par d'autres antipsychotiques[17]) ;
+somnolence (relativement modérée par rapport à celles déclenchées par d'autres antipsychotiques) ;
 dyspnée
 congestion nasale.
-Effets secondaires rares[15] :
+Effets secondaires rares :
 iléus paralytique ;
 agranulocytose ;
 leucopénie ;
@@ -672,9 +692,11 @@
           <t>Efficacité</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon la HAS, le service médical rendu de la loxapine est important[18].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon la HAS, le service médical rendu de la loxapine est important.
 </t>
         </is>
       </c>
@@ -703,9 +725,11 @@
           <t>Fait divers</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 17 août 2010, il a été utilisé par malveillance contre des soignants de l'Hôtel-Dieu de Paris[19].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 17 août 2010, il a été utilisé par malveillance contre des soignants de l'Hôtel-Dieu de Paris.
 </t>
         </is>
       </c>
